--- a/test-design.xlsx
+++ b/test-design.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Functional Test" sheetId="10" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Functional Test'!$A$1:$E$6</definedName>
+  </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
@@ -108,34 +111,34 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -145,6 +148,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -176,7 +191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -184,10 +199,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,20 +509,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="47.7109375" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="24.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="47.7109375" style="4"/>
-    <col min="2" max="3" width="34.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="37.5703125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="34.7109375" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="47.7109375" style="4"/>
+    <col min="1" max="16384" width="24.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -521,93 +535,93 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="54" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:5" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="4" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/test-design.xlsx
+++ b/test-design.xlsx
@@ -10,20 +10,14 @@
     <sheet name="Functional Test" sheetId="10" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Functional Test'!$A$1:$E$6</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Functional Test'!$A$1:$E$5</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
-  <si>
-    <t>boolean get_source_line()</t>
-  </si>
-  <si>
-    <t>void print_page_header()</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>Input parameter1</t>
   </si>
@@ -43,15 +37,9 @@
     <t>a line will be print</t>
   </si>
   <si>
-    <t>the source file will be open and the date time will be set</t>
-  </si>
-  <si>
     <t xml:space="preserve">ensure source file name pass to main throught command line are received correctly.  </t>
   </si>
   <si>
-    <t>#define DEBUG to output the source file name</t>
-  </si>
-  <si>
     <t>Function to be test</t>
   </si>
   <si>
@@ -61,40 +49,43 @@
     <t>Output or Return value</t>
   </si>
   <si>
-    <t>int main(argv)</t>
-  </si>
-  <si>
-    <t>char array</t>
-  </si>
-  <si>
     <t>return zero if successful else return non-zero</t>
   </si>
   <si>
-    <t>ensure the input file will be open and the date time will be set</t>
-  </si>
-  <si>
-    <t>a source file name (char array)</t>
-  </si>
-  <si>
     <t>ensure that a line if fetch from the source file</t>
   </si>
   <si>
     <t>true if a line is read successfully else false</t>
   </si>
   <si>
-    <t>#define DEBUG to output the the line read</t>
-  </si>
-  <si>
-    <t>void init_lister(char array)</t>
-  </si>
-  <si>
-    <t>void print_line(char array)</t>
-  </si>
-  <si>
     <t>ensure that a line is printed</t>
   </si>
   <si>
     <t>ensure that a pager header is print</t>
+  </si>
+  <si>
+    <t>int main (int argc, const char *argv[])</t>
+  </si>
+  <si>
+    <t>BOOLEAN get_source_line(FILE *src_file, char src_name[], char todays_date[])</t>
+  </si>
+  <si>
+    <t>void print_line(char line[], char source_name_to_print[], char date_to_print[])</t>
+  </si>
+  <si>
+    <t>static void print_page_header(char source_name[], char date[])</t>
+  </si>
+  <si>
+    <t>filename</t>
+  </si>
+  <si>
+    <t>out put on the screen should match content of input file with line numbers.</t>
+  </si>
+  <si>
+    <t>file pointer, source name and date</t>
+  </si>
+  <si>
+    <t>a line of text and date</t>
   </si>
 </sst>
 </file>
@@ -507,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -520,104 +511,87 @@
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>5</v>
+      <c r="D5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
